--- a/Problem-Solving/Equation-solving/algo.xlsx
+++ b/Problem-Solving/Equation-solving/algo.xlsx
@@ -1203,7 +1203,7 @@
   <dimension ref="C2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1257,22 +1257,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="4:10">
+    <row r="6" spans="3:10">
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6">
         <f t="shared" ref="D6:D11" si="0">(C6*C6)-(5*C6)+6</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F11" si="1">(C6+I6)/2</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G12" si="2">(C6*C6)+(5*C6)+6</f>
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J11" si="3">(C6*C6)+(5*C6)+6</f>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="4:10">
